--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T19:05:31+00:00</t>
+    <t>2025-06-19T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T19:58:19+00:00</t>
+    <t>2025-06-20T06:32:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T06:32:13+00:00</t>
+    <t>2025-06-20T06:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T06:38:10+00:00</t>
+    <t>2025-06-20T10:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:52:57+00:00</t>
+    <t>2025-06-20T10:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:58:39+00:00</t>
+    <t>2025-06-20T11:10:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T11:10:44+00:00</t>
+    <t>2025-06-20T11:56:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T11:56:46+00:00</t>
+    <t>2025-06-20T12:07:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:07:13+00:00</t>
+    <t>2025-06-20T12:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:34:45+00:00</t>
+    <t>2025-06-20T12:45:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:45:24+00:00</t>
+    <t>2025-06-20T15:01:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T15:01:45+00:00</t>
+    <t>2025-06-20T16:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:27:23+00:00</t>
+    <t>2025-06-20T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:50:39+00:00</t>
+    <t>2025-06-20T16:59:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:59:22+00:00</t>
+    <t>2025-06-20T17:02:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:02:13+00:00</t>
+    <t>2025-06-20T17:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:06:30+00:00</t>
+    <t>2025-06-20T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:15:26+00:00</t>
+    <t>2025-06-20T17:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:20:15+00:00</t>
+    <t>2025-06-20T17:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:28:06+00:00</t>
+    <t>2025-06-20T17:36:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:36:29+00:00</t>
+    <t>2025-06-23T08:01:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T08:01:32+00:00</t>
+    <t>2025-10-30T12:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T12:10:10+00:00</t>
+    <t>2025-10-30T21:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T21:18:07+00:00</t>
+    <t>2025-10-31T07:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T07:41:35+00:00</t>
+    <t>2025-10-31T08:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsBloodPressureMeasurementMethodValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T08:30:38+00:00</t>
+    <t>2025-11-05T11:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
